--- a/DallasDesignSprint/ScrapingOutput/locations/CarpenterPark/CarpenterPark.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/CarpenterPark/CarpenterPark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,208 +468,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adam Abam</t>
+          <t>Southee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wonderful for families</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
+          <t>Carpenter Park review:
+Carpenter Park is a charming, well-kept community park that offers a peaceful environment for visitors. It features open green spaces, walking trails, and playgrounds, making it ideal for families and outdoor enthusiasts. The park is great for picnics, casual strolls, and enjoying nature without leaving the city. It's known for being clean and safe, with plenty of benches and shaded areas. A nice spot to relax or get some fresh air with friends or family.
+Want me to add details about facilities or nearby attractions?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a week ago</t>
+          <t>a month ago</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shawn S</t>
+          <t>Cory Krol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancelled entire weekend tournament. Why Excuse was too much rain. Fields are dry. How sad</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+          <t>One of downtowns best kept secrets. The park is great, don't worry about the homeless people they're more scared of you than you are of them. Just wave and say hi to them and go on with your day like you would have if it had been someone with a house there.
+I saw someone say that we can't use the dog park because homeless people sleep in it? Well then walk your dog before 11pm when the dog park closes. The homeless respect the dog park hours believe it or not, if they're in there sleeping on the non-anti-homeless-benches then it's prob 11pm-5am type shit when the dog park is suppose be closed lol</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>a week ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lejah</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>5</v>
+          <t>Kali Khan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carpenter Park is a spacious and modern urban park, perfect for both relaxation and recreation. It features wide open lawns, public art installations, walking paths, and areas for skateboarding and biking. There’s a playground for kids and shaded spots for lounging. The park is clean, well-lit, and dog-friendly, making it a great hangout for families and individuals a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>a week ago</t>
+          <t>a month ago</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>oG Bookworm</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>5</v>
+          <t>Chad Risby</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Great hidden gym very nice. Well maintained maintenance safe environment for people to come and walk their dogs and play basketball.RestroomsYes there hereDog-friendlinessYes large dog 🐕 parkPicnic areaYes picnic 🧺 tables and chairs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>a week ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eron Crawford</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>5</v>
+          <t>Cameron due Delport</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carpenter Park is a lovely green space ideal for family outings and casual strolls. It offers well-maintained walking paths, picnic areas, and playgrounds for kids. The park has plenty of shaded spots and open lawns, making it great for relaxing or outdoor activities. Friendly atmosphere and clean surroundings make it a nice local escape for nature lovers and community gatherings.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>a month ago</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dung Hoàng</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>5</v>
+          <t>Shawn S</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cancelled entire weekend tournament.  Why? Excuse was too much rain. Fields are dry. How sad...</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2 weeks ago</t>
+          <t>a week ago</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jon Rister</t>
+          <t>Madison Rainbow</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Panda fest was great</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
+          <t>Opens May 3, 2022. A beautiful, downtown, green space with water features, landscaped walking paths, enclosed dog park, basketball court, large art installation, and public restrooms. +31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 weeks ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Southee</t>
+          <t>Anson Gilbert</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carpenter Park review: Carpenter Park is a charming, well-kept community park that offers a peaceful environment for visitors. It features open green spaces, walking trails, and playgrounds, making it ideal for families and outdoor enthusiasts. The park is great for picnics, casual strolls, and enjoying nature without leaving the city. It's known for being clean and safe, with plenty of benches and shaded areas. A nice spot to relax or get some fresh air with friends or family. Want me to add details about facilities or nearby attractions</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
+          <t>This is a beautiful new park with an awesome mini dog park! It has two large fountains and even the pups have there own that is motion activated. Great job, Dallas! +6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>a month ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kali Khan</t>
+          <t>Samuel Reed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carpenter Park is a spacious and modern urban park, perfect for both relaxation and recreation. It features wide open lawns, public art installations, walking paths, and areas for skateboarding and biking. There’s a playground for kids and shaded spots for lounging. The park is clean, well-lit, and dog-friendly, making it a great hangout for families and individuals a</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
+          <t>The atmosphere was lively and friendly. People were respectful, and the place felt safe even in the evening.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -677,297 +714,338 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>William Wakefield</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>5</v>
+          <t>Eric Larsen</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Great spot, dog park, bathrooms, splash pad, basketball court, garden/ grass areas. +6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>a month ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cameron due Delport</t>
+          <t>Dena Sims</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carpenter Park is a lovely green space ideal for family outings and casual strolls. It offers well-maintained walking paths, picnic areas, and playgrounds for kids. The park has plenty of shaded spots and open lawns, making it great for relaxing or outdoor activities. Friendly atmosphere and clean surroundings make it a nice local escape for nature lovers and community gatherings</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
+          <t>This park is very new. It opened on May 7th. It is a huge hit. There are water shows. Two to be exact. The park is rather big considering it’s downtown. They provide parking spaces for visitors.
+There is a couple of basketball courts, a path that runs the entire length of the park and surrounds the park as well. There is a beautiful view of downtown Dallas. The grass consists of beautiful greenery.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>a month ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F12" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Samuel Reed</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The atmosphere was lively and friendly. People were respectful, and the place felt safe even in the evening</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
+          <t>nice and beautiful park.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>a month ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F13" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jheryl Walker</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>5</v>
+          <t>Adrian Lopez</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>This was a perfectly placed park next to the transit center that I was headed too and it seems I needed a quick break,  a moment to meditate &amp; clear my mind.  Smack dab in the middle of the city and it was exactly what i needed as I watched the fountains water works dance around the stones.  Relief!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F14" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Tony Clark</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nice and beautiful park</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
+          <t>This park is in central Dallas. Being that I live in the Uptown area, I often pass by it. The park looks nice from the street view as you pass by. I had not actually been to it until I attended Wine Festival in August of 2024. There are some street parking spaces along the side of the park that appear to be first come first served; either that or they are metered. There are also paid parking lots very near by. I personally would not regularly go to the park because of the geographic location, but would attend another event  if it were held there.PlaygroundTo my knowledge there is not a playground.RestroomsI do not believe there is a restroom.Dog-friendlinessThe park is dog friendly.Picnic areaIt would be a good place for a picnic</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F15" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cory Krol</t>
+          <t>Felicia Rusk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>One of downtowns best kept secrets. The park is great, don't worry about the homeless people they're more scared of you than you are of them. Just wave and say hi to them and go on with your day like you would have if it had been someone with a house there. I saw someone say that we can't use the dog park because homeless people sleep in it Well then walk your dog before 11pm when the dog park closes. The homeless respect the dog park hours believe it or not, if they're in there sleeping on the non-anti-homeless-benches then it's prob 11pm-5am type shit when the dog park is suppose be closed lol</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
+          <t>It is a beautiful addition to the downtown area. I was transferring from the DART train to my bus to come home from working at the car auction.
+I had to stop at the East transit center to use the facility.
+But unfortunately it was closed. They should have some type of outdoor facility when the transit center is closed on Sundays.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F16" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>matty-B H</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>5</v>
+          <t>Kjerstine Nielsen</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Great new addition to the downtown parks.  Small dog park is perfect for smaller dogs.  The basketball courts are popular with pick-up games most days in the late afternoon &amp; evening.  The fountain is a nice feature with nearby tables.  Great place to walk your dog.  Just remember to pick up after your fur babies so everyone can enjoy the park.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F17" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chad Risby</t>
+          <t>Jon Rister</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Great hidden gym very nice. Well maintained maintenance safe environment for people to come and walk their dogs and play basketball.RestroomsYes there hereDog-friendlinessYes large dog 🐕 parkPicnic areaYes picnic 🧺 tables and chairs</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
+          <t>Panda fest was great</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F18" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>demetria washington</t>
+          <t>Alexis Granados</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nice parkPlaygroundNoRestroomsHaveDog-friendlinessYesPicnic areaYes</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
+          <t>Great addition to the Downtown area! A basketball court, Dog park, clean restrooms, water play areas and a garden are one of the many things you can find here. I've been waiting for this place to open since it was first announced and it was well worth the wait. Yet another fantastic place to enjoy the Dallas skyline any time of the day!</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F19" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lavette Dameron</t>
+          <t>Cassandra Felts</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I had so much fun</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
+          <t>Just walking through to get to Pearl station it was about 10pm. There is construction going on in the area just not at night and other than some congestion with traffic it was clean and quiet. Really cute with outdoor tables. I plan togo during the day soon.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F20" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Felicia Rusk</t>
+          <t>Slick TrillaRReal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>It is a beautiful addition to the downtown area. I was transferring from the DART train to my bus to come home from working at the car auction.
-I had to stop at the East transit center to use the facility.
-But unfortunately it was closed. They should have some type of outdoor facility when the transit center is closed on Sundays</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
+          <t>Over all nice park to take your dog for a walk and play some basketball. Only downside is one of the rims is about 9"6 and the other rim that is 10 feet tall is on the side where the roof or the bottom of the bridge is a bit lower so if you</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F21" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ravishanker cheedepudi</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>5</v>
+          <t>Lavette Dameron</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>I had so much fun.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -975,58 +1053,66 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F22" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Banicqa London</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>5</v>
+          <t>Evelina Uhr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very nice place to sit and relax !</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F23" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tony Clark</t>
+          <t>Mansure Jalali</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>This park is in central Dallas. Being that I live in the Uptown area, I often pass by it. The park looks nice from the street view as you pass by. I had not actually been to it until I attended Wine Festival in August of 2024. There are some street parking spaces along the side of the park that appear to be first come first served; either that or they are metered. There are also paid parking lots very near by. I personally would not regularly go to the park because of the geographic location, but would attend another event if it were held there.PlaygroundTo my knowledge there is not a playground.RestroomsI do not believe there is a restroom.Dog-friendlinessThe park is dog friendly.Picnic areaIt would be a good place for a picnic</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>4</v>
+          <t>Nice small urban park. A good refuge in the middle of chaos.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F24" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="25">
@@ -1040,8 +1126,10 @@
           <t>The Dart Eastbound Transit Center is located across the street from this park where I have to catch a bus to get to church on Sunday mornings. (a bus that doesn't go through downtown Dallas)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>5</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1049,143 +1137,167 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F25" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chad Robinson</t>
+          <t>Fil Lorinc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I hope so hard I put holes in my shoes</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
+          <t>The Eastern-most addition to downtown's park and public space initiative. Includes fountains, grass lawn, and even a basketball ball court shaded by Highway 75 which passes overhead.RestroomsThere are public restrooms availableDog-friendlinessDoggos welcome</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F26" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alberto Zapata</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>5</v>
+          <t>Teri Hoffman</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>It was ok. Has a small dog area. Walking paths. A half court and lidless toilets.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F27" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eric Larsen</t>
+          <t>Brad Ford Smith</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Great spot, dog park, bathrooms, splash pad, basketball court, garden/ grass areas. +6</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>5</v>
+          <t>Portal Park Slice, 1981 by American artist Robert Irwin.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F28" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>duke marks</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>5</v>
+          <t>Adam Abam</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wonderful for families</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a week ago</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F29" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Andre Sanders</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>3</v>
+          <t>Danell Miles</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Great bark park. Good for skateboarding and a good concrete basketball court.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F30" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Charles Beard</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Very busy place.RestroomsThey stay after keeping them clean</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>4</v>
+          <t>A 7 out of 10 for a park</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1193,99 +1305,112 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F31" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Adrian Lopez</t>
+          <t>Phillip Ramos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>This was a perfectly placed park next to the transit center that I was headed too and it seems I needed a quick break, a moment to meditate &amp; clear my mind. Smack dab in the middle of the city and it was exactly what i needed as I watched the fountains water works dance around the stones. Relief!</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>5</v>
+          <t>No place to park but a shaded place to play basketball with a nearby dog park</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F32" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>demetria washington</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A 7 out of 10 for a park</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>5</v>
+          <t>Nice parkPlaygroundNoRestroomsHaveDog-friendlinessYesPicnic areaYes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F33" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dee</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>5</v>
+          <t>Eon Rich-Errors</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>i had better not be trapped in a giant computer terminal...whatever...too late.
+soul-weaver.carrd.co</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F34" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fil Lorinc</t>
+          <t>Joel ALF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Eastern-most addition to downtown's park and public space initiative. Includes fountains, grass lawn, and even a basketball ball court shaded by Highway 75 which passes overhead.RestroomsThere are public restrooms availableDog-friendlinessDoggos welcome</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>4</v>
+          <t>Was nice, good music thanks to Dj. Listo.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1293,135 +1418,167 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F35" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mark Espinoza</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>5</v>
+          <t>Chad Robinson</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>I hope so hard I put holes in my shoes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F36" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Juan Monjaraz</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
-        <v>5</v>
+          <t>Lee Kleinman</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Not open yet, but big plans.  Grass went in today.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>4 years ago</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F37" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bernard Hill</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
-        <v>3</v>
+          <t>Angelica Tapia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Beautiful green space addition to downtown!</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F38" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i-LyveStylez by The LyveWyre</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
-        <v>5</v>
+          <t>Angi Ming</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Another beautiful park in the city.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F39" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brad Ford Smith</t>
+          <t>John Bailey</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Portal Park Slice, 1981 by American artist Robert Irwin</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>5</v>
+          <t>Really nice refresh/expansion of the park</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F40" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stephan Hennelly</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>5</v>
+          <t>M Jones</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nice place to just Clear your mind.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1429,21 +1586,27 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F41" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Latasha Lister</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
-        <v>5</v>
+          <t>Charles Beard</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Very busy place.RestroomsThey stay after keeping them clean.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1451,143 +1614,159 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F42" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Edward caudle</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>5</v>
+          <t>Onie Bratton</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Great park</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F43" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M Jones</t>
+          <t>Luke Milone</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nice place to just Clear your mind</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>5</v>
+          <t>Opening soon</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F44" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cassandra Felts</t>
+          <t>Stanley Richards</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Just walking through to get to Pearl station it was about 10pm. There is construction going on in the area just not at night and other than some congestion with traffic it was clean and quiet. Really cute with outdoor tables. I plan togo during the day soon</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>5</v>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F45" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Yolanda Kincaid</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>5</v>
+          <t>George Alonzo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F46" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Double ONeal (WhiteMike)</t>
+          <t>Ashton Tassin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>5</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 years ago</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F47" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Teri Hoffman</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>It was ok. Has a small dog area. Walking paths. A half court and lidless toilets</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>3</v>
+          <t>Stephan Hennelly</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1595,816 +1774,562 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F48" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Douglas Carriger</t>
+          <t>Lejah</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>5</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a week ago</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F49" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Joel ALF</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Was nice, good music thanks to Dj. Listo</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>4</v>
+          <t>oG Bookworm</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a week ago</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F50" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jimmy Williams Jr (JuneBugg)</t>
+          <t>Eron Crawford</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
-        <v>5</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>2 weeks ago</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F51" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicholas Salinas</t>
+          <t>Dung Hoàng</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
-        <v>5</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>3 weeks ago</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F52" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kjerstine Nielsen</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Great new addition to the downtown parks. Small dog park is perfect for smaller dogs. The basketball courts are popular with pick-up games most days in the late afternoon &amp; evening. The fountain is a nice feature with nearby tables. Great place to walk your dog. Just remember to pick up after your fur babies so everyone can enjoy the park</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>5</v>
+          <t>William Wakefield</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a month ago</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F53" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eduardo V</t>
+          <t>Jheryl Walker</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
-        <v>5</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>2 months ago</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F54" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>nate city</t>
+          <t>matty-B H</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
-        <v>5</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F55" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mansure Jalali</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Nice small urban park. A good refuge in the middle of chaos</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>5</v>
+          <t>Ravishanker cheedepudi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F56" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Evelina Uhr</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Very nice place to sit and relax !</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>5</v>
+          <t>Banicqa London</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F57" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Phillip Ramos</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>No place to park but a shaded place to play basketball with a nearby dog park</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>2</v>
+          <t>Alberto Zapata</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F58" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>henk visser</t>
+          <t>duke marks</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="n">
-        <v>5</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F59" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ashton Tassin</t>
+          <t>Andre Sanders</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
-        <v>5</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F60" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Eon Rich-Errors</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>i had better not be trapped in a giant computer terminal...whatever...too late. soul-weaver.carrd.co</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>5</v>
+          <t>Dee</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F61" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Albert Thornton</t>
+          <t>Mark Espinoza</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
-        <v>5</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F62" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Slick TrillaRReal</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Over all nice park to take your dog for a walk and play some basketball. Only downside is one of the rims is about 9"6 and the other rim that is 10 feet tall is on the side where the roof or the bottom of the bridge is a bit lower so if you</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>4</v>
+          <t>Juan Monjaraz</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F63" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Angelica Tapia</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Beautiful green space addition to downtown!</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>5</v>
+          <t>Bernard Hill</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F64" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Angi Ming</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Another beautiful park in the city</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>5</v>
+          <t>i-LyveStylez by The LyveWyre</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F65" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Darryl Nash</t>
+          <t>Latasha Lister</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
-        <v>5</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F66" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Danell Miles</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Great bark park. Good for skateboarding and a good concrete basketball court</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>5</v>
+          <t>Edward caudle</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F67" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Onie Bratton</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Great park</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>5</v>
+          <t>Yolanda Kincaid</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F68" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Drew Albert</t>
+          <t>Double ONeal (WhiteMike)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
-        <v>5</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F69" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>George Alonzo</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>5</v>
+          <t>Douglas Carriger</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F70" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Stanley Richards</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>5</v>
+          <t>Jimmy Williams Jr (JuneBugg)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3 years ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.784538</v>
+        <v>32.7845335</v>
       </c>
       <c r="F71" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Dena Sims</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>This park is very new. It opened on May 7th. It is a huge hit. There are water shows. Two to be exact. The park is rather big considering it’s downtown. They provide parking spaces for visitors. There is a couple of basketball courts, a path that runs the entire length of the park and surrounds the park as well. There is a beautiful view of downtown Dallas. The grass consists of beautiful greenery</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Anson Gilbert</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>This is a beautiful new park with an awesome mini dog park! It has two large fountains and even the pups have there own that is motion activated. Great job, Dallas! +6</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>5</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>John Bailey</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Really nice refresh/expansion of the park</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Alexis Granados</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Great addition to the Downtown area! A basketball court, Dog park, clean restrooms, water play areas and a garden are one of the many things you can find here. I've been waiting for this place to open since it was first announced and it was well worth the wait. Yet another fantastic place to enjoy the Dallas skyline any time of the day!</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>5</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Jose Baylon (Pillo)</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
-        <v>5</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Ayesha Siddiqui</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
-        <v>5</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Madison Rainbow</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Opens May 3, 2022. A beautiful, downtown, green space with water features, landscaped walking paths, enclosed dog park, basketball court, large art installation, and public restrooms. +31</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>5</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Luke Milone</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Opening soon</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>5</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>3 years ago</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Lee Kleinman</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Not open yet, but big plans. Grass went in today</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>4</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>4 years ago</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-96.79498</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Simeon Pratt</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>5 years ago</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>32.784538</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-96.79498</v>
+        <v>-96.7924051</v>
       </c>
     </row>
   </sheetData>
